--- a/data/trans_orig/P05B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7923A5-6096-40B7-8BBF-13E5B9C553AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB68E6D-030C-4A90-80CC-C0EE6C10D7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5387EEED-0E27-43FD-8C00-BF9997FAAEFE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F838233-098A-4C7C-B788-A3CFD9B624A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="616">
   <si>
     <t>Población según la calidad percibida del medio ambiente de su barrio en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -95,1783 +95,1789 @@
     <t>0,25%</t>
   </si>
   <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la calidad percibida del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,54%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>Población según la calidad percibida del medio ambiente de su barrio en 2016 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>Mala</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>Población según la calidad percibida del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
   </si>
   <si>
     <t>19,43%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
   </si>
   <si>
     <t>19,6%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la calidad percibida del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,54%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>Población según la calidad percibida del medio ambiente de su barrio en 2015 (Tasa respuesta: 99,68%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>Población según la calidad percibida del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
   </si>
   <si>
     <t>19,08%</t>
@@ -2292,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A04CAE-A956-42BC-B59B-8D431D5F4902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC93A7DB-1A89-4BDD-9607-09F532307E6A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2500,16 +2506,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>30</v>
@@ -2518,13 +2524,13 @@
         <v>28882</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>62</v>
@@ -2533,13 +2539,13 @@
         <v>62390</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>92</v>
@@ -2548,19 +2554,19 @@
         <v>91272</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>225</v>
@@ -2569,13 +2575,13 @@
         <v>224934</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H7" s="7">
         <v>268</v>
@@ -2584,13 +2590,13 @@
         <v>275559</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>493</v>
@@ -2599,19 +2605,19 @@
         <v>500494</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>674</v>
@@ -2620,13 +2626,13 @@
         <v>669668</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>851</v>
@@ -2635,13 +2641,13 @@
         <v>860324</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>1525</v>
@@ -2650,19 +2656,19 @@
         <v>1529992</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>104</v>
@@ -2671,13 +2677,13 @@
         <v>103859</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>104</v>
@@ -2686,13 +2692,13 @@
         <v>111237</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>208</v>
@@ -2701,13 +2707,13 @@
         <v>215095</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2728,13 @@
         <v>1029956</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>1291</v>
@@ -2737,13 +2743,13 @@
         <v>1315113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>2327</v>
@@ -2752,18 +2758,18 @@
         <v>2345069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2781,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2796,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2811,7 +2817,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2832,13 @@
         <v>13309</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2841,7 +2847,7 @@
         <v>9816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>72</v>
@@ -2859,16 +2865,16 @@
         <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>33</v>
@@ -2877,13 +2883,13 @@
         <v>35044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -2892,13 +2898,13 @@
         <v>59823</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>91</v>
@@ -2907,19 +2913,19 @@
         <v>94867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>312</v>
@@ -2928,13 +2934,13 @@
         <v>315491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>321</v>
@@ -2943,13 +2949,13 @@
         <v>332202</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -2958,19 +2964,19 @@
         <v>647694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1122</v>
@@ -2979,13 +2985,13 @@
         <v>1154618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>1000</v>
@@ -2994,13 +3000,13 @@
         <v>1016844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>2122</v>
@@ -3009,19 +3015,19 @@
         <v>2171462</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>170</v>
@@ -3030,13 +3036,13 @@
         <v>174950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -3045,13 +3051,13 @@
         <v>167365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="M16" s="7">
         <v>334</v>
@@ -3060,13 +3066,13 @@
         <v>342315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,16 +3084,16 @@
         <v>1649</v>
       </c>
       <c r="D17" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1553</v>
@@ -3096,13 +3102,13 @@
         <v>1586049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3202</v>
@@ -3111,18 +3117,18 @@
         <v>3279462</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3140,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3155,7 +3161,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3170,7 +3176,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3191,10 @@
         <v>5746</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>115</v>
@@ -3227,7 +3233,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
         <v>11</v>
@@ -3239,10 +3245,10 @@
         <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3251,13 +3257,13 @@
         <v>15929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -3266,19 +3272,19 @@
         <v>26692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>115</v>
@@ -3329,7 +3335,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>321</v>
@@ -3380,7 +3386,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>73</v>
@@ -3404,13 +3410,13 @@
         <v>47467</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>118</v>
@@ -3419,13 +3425,13 @@
         <v>124615</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3446,13 @@
         <v>549055</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
         <v>452</v>
@@ -3455,13 +3461,13 @@
         <v>476412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="7">
         <v>977</v>
@@ -3470,13 +3476,13 @@
         <v>1025466</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,7 +3505,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3514,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3529,7 +3535,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3550,13 @@
         <v>21668</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>20</v>
@@ -3559,13 +3565,13 @@
         <v>20140</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -3574,19 +3580,19 @@
         <v>41808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
         <v>74</v>
@@ -3595,13 +3601,13 @@
         <v>74689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="7">
         <v>135</v>
@@ -3610,13 +3616,13 @@
         <v>138142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M27" s="7">
         <v>209</v>
@@ -3625,19 +3631,19 @@
         <v>212831</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>652</v>
@@ -3646,13 +3652,13 @@
         <v>663987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>680</v>
@@ -3661,13 +3667,13 @@
         <v>705399</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>1332</v>
@@ -3676,19 +3682,19 @@
         <v>1369387</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>2117</v>
@@ -3697,13 +3703,13 @@
         <v>2156123</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>2148</v>
@@ -3712,13 +3718,13 @@
         <v>2187823</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>4265</v>
@@ -3727,19 +3733,19 @@
         <v>4343946</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>347</v>
@@ -3748,13 +3754,13 @@
         <v>355956</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>313</v>
@@ -3763,13 +3769,13 @@
         <v>326069</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>660</v>
@@ -3778,13 +3784,13 @@
         <v>682025</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3805,13 @@
         <v>3272424</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -3814,13 +3820,13 @@
         <v>3377573</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>6506</v>
@@ -3829,18 +3835,18 @@
         <v>6649997</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C1373-68E7-4937-9727-66D7789B3BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BA1FC9-DAF2-4592-9EA0-F4FBFB1608AC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3876,7 +3882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3989,7 +3995,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4004,7 +4010,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4019,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4040,13 @@
         <v>2758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4055,7 +4061,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4067,16 +4073,16 @@
         <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>11</v>
@@ -4085,13 +4091,13 @@
         <v>11101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -4100,13 +4106,13 @@
         <v>14126</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -4115,19 +4121,19 @@
         <v>25228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>125</v>
@@ -4136,13 +4142,13 @@
         <v>136448</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>195</v>
@@ -4151,13 +4157,13 @@
         <v>205608</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -4166,19 +4172,19 @@
         <v>342056</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>675</v>
@@ -4187,13 +4193,13 @@
         <v>726485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>913</v>
@@ -4202,34 +4208,34 @@
         <v>979643</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>1588</v>
       </c>
       <c r="N8" s="7">
-        <v>1706128</v>
+        <v>1706127</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>90</v>
@@ -4238,13 +4244,13 @@
         <v>93845</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -4253,13 +4259,13 @@
         <v>124464</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -4268,13 +4274,13 @@
         <v>218309</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4295,13 @@
         <v>970637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>1237</v>
@@ -4304,33 +4310,33 @@
         <v>1327169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>2141</v>
       </c>
       <c r="N10" s="7">
-        <v>2297806</v>
+        <v>2297805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -4348,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4363,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4378,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,13 +4399,13 @@
         <v>7806</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4408,13 +4414,13 @@
         <v>4082</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4423,10 +4429,10 @@
         <v>11888</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>246</v>
@@ -4435,7 +4441,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>21</v>
@@ -4450,7 +4456,7 @@
         <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4459,13 +4465,13 @@
         <v>31402</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -4477,16 +4483,16 @@
         <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>246</v>
@@ -4495,13 +4501,13 @@
         <v>266715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>241</v>
@@ -4510,13 +4516,13 @@
         <v>264808</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M14" s="7">
         <v>487</v>
@@ -4525,19 +4531,19 @@
         <v>531523</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1358</v>
@@ -4546,13 +4552,13 @@
         <v>1433395</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H15" s="7">
         <v>1189</v>
@@ -4561,13 +4567,13 @@
         <v>1274467</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M15" s="7">
         <v>2547</v>
@@ -4576,19 +4582,19 @@
         <v>2707861</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>217</v>
@@ -4597,13 +4603,13 @@
         <v>225339</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -4612,13 +4618,13 @@
         <v>177919</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>384</v>
@@ -4627,13 +4633,13 @@
         <v>403257</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4654,13 @@
         <v>1957138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1630</v>
@@ -4663,13 +4669,13 @@
         <v>1752678</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3479</v>
@@ -4678,18 +4684,18 @@
         <v>3709815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -4707,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4722,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4737,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4758,13 @@
         <v>3820</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4767,13 +4773,13 @@
         <v>2010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4782,19 +4788,19 @@
         <v>5829</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4803,13 +4809,13 @@
         <v>7187</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -4818,10 +4824,10 @@
         <v>2768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>286</v>
@@ -4833,19 +4839,19 @@
         <v>9955</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>59</v>
@@ -4854,10 +4860,10 @@
         <v>62560</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>290</v>
@@ -4896,7 +4902,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>311</v>
@@ -4947,7 +4953,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>55</v>
@@ -4959,10 +4965,10 @@
         <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -4971,13 +4977,13 @@
         <v>63343</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>112</v>
@@ -4986,13 +4992,13 @@
         <v>125866</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,13 +5013,13 @@
         <v>478031</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
         <v>411</v>
@@ -5022,13 +5028,13 @@
         <v>457662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="7">
         <v>846</v>
@@ -5037,13 +5043,13 @@
         <v>935693</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5081,7 +5087,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5096,7 +5102,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5117,13 @@
         <v>14383</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -5129,7 +5135,7 @@
         <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>316</v>
@@ -5141,19 +5147,19 @@
         <v>23803</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>114</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
         <v>39</v>
@@ -5162,13 +5168,13 @@
         <v>42173</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H27" s="7">
         <v>44</v>
@@ -5177,13 +5183,13 @@
         <v>48296</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -5192,19 +5198,19 @@
         <v>90469</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>430</v>
@@ -5213,13 +5219,13 @@
         <v>465722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H28" s="7">
         <v>503</v>
@@ -5228,13 +5234,13 @@
         <v>545161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7">
         <v>933</v>
@@ -5243,19 +5249,19 @@
         <v>1010883</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>2344</v>
@@ -5264,13 +5270,13 @@
         <v>2501821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H29" s="7">
         <v>2384</v>
@@ -5279,13 +5285,13 @@
         <v>2568905</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M29" s="7">
         <v>4728</v>
@@ -5294,19 +5300,19 @@
         <v>5070726</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>362</v>
@@ -5315,13 +5321,13 @@
         <v>381706</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H30" s="7">
         <v>338</v>
@@ -5330,13 +5336,13 @@
         <v>365726</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M30" s="7">
         <v>700</v>
@@ -5345,13 +5351,13 @@
         <v>747432</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5372,13 @@
         <v>3405805</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>3278</v>
@@ -5381,13 +5387,13 @@
         <v>3537508</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>6466</v>
@@ -5396,18 +5402,18 @@
         <v>6943314</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5426,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130FD505-36E1-41F4-BC4B-E96FAAF1348C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE696C-C60B-4FE8-92DD-B63501CC0626}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5443,7 +5449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5571,7 +5577,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5586,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5613,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5616,13 +5622,13 @@
         <v>1930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5631,19 +5637,19 @@
         <v>3956</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -5652,13 +5658,13 @@
         <v>8076</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5667,13 +5673,13 @@
         <v>23812</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -5682,19 +5688,19 @@
         <v>31888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>91</v>
@@ -5703,13 +5709,13 @@
         <v>91127</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5718,13 +5724,13 @@
         <v>126239</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>191</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -5733,19 +5739,19 @@
         <v>217367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>467</v>
@@ -5754,13 +5760,13 @@
         <v>462139</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -5769,13 +5775,13 @@
         <v>628119</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>1030</v>
@@ -5787,16 +5793,16 @@
         <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>192</v>
@@ -5805,13 +5811,13 @@
         <v>189499</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H9" s="7">
         <v>189</v>
@@ -5820,13 +5826,13 @@
         <v>207385</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M9" s="7">
         <v>381</v>
@@ -5835,13 +5841,13 @@
         <v>396884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5862,13 @@
         <v>752867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>886</v>
@@ -5871,13 +5877,13 @@
         <v>987485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>1647</v>
@@ -5886,18 +5892,18 @@
         <v>1740352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5915,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5930,7 +5936,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -5945,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5966,13 @@
         <v>9190</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -5975,10 +5981,10 @@
         <v>3917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>316</v>
@@ -5990,19 +5996,19 @@
         <v>13107</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>384</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
@@ -6011,13 +6017,13 @@
         <v>20092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -6026,13 +6032,13 @@
         <v>36966</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -6041,19 +6047,19 @@
         <v>57058</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>247</v>
@@ -6062,13 +6068,13 @@
         <v>259598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -6077,13 +6083,13 @@
         <v>253636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>486</v>
@@ -6092,19 +6098,19 @@
         <v>513234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1260</v>
@@ -6113,13 +6119,13 @@
         <v>1345365</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H15" s="7">
         <v>1194</v>
@@ -6128,13 +6134,13 @@
         <v>1237743</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>406</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>2454</v>
@@ -6143,19 +6149,19 @@
         <v>2583109</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>409</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>413</v>
@@ -6164,13 +6170,13 @@
         <v>435802</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>430</v>
@@ -6179,13 +6185,13 @@
         <v>449184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>415</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>843</v>
@@ -6194,13 +6200,13 @@
         <v>884987</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6221,13 @@
         <v>2070047</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>1901</v>
@@ -6230,13 +6236,13 @@
         <v>1981446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>3847</v>
@@ -6245,18 +6251,18 @@
         <v>4051494</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6274,7 +6280,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6289,7 +6295,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6325,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -6334,13 +6340,13 @@
         <v>1254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6349,19 +6355,19 @@
         <v>1254</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>210</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -6373,10 +6379,10 @@
         <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -6385,13 +6391,13 @@
         <v>7567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -6400,19 +6406,19 @@
         <v>14207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>58</v>
@@ -6421,13 +6427,13 @@
         <v>63898</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>424</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H21" s="7">
         <v>59</v>
@@ -6436,13 +6442,13 @@
         <v>64593</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M21" s="7">
         <v>117</v>
@@ -6451,19 +6457,19 @@
         <v>128490</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>322</v>
@@ -6472,13 +6478,13 @@
         <v>350606</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>337</v>
@@ -6487,13 +6493,13 @@
         <v>353237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>659</v>
@@ -6502,19 +6508,19 @@
         <v>703843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>115</v>
@@ -6523,13 +6529,13 @@
         <v>124844</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>122</v>
@@ -6538,13 +6544,13 @@
         <v>122489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -6553,13 +6559,13 @@
         <v>247334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6580,13 @@
         <v>545988</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
         <v>526</v>
@@ -6589,13 +6595,13 @@
         <v>549140</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="7">
         <v>1026</v>
@@ -6604,13 +6610,13 @@
         <v>1095128</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,7 +6639,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6648,7 +6654,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6663,7 +6669,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6684,13 @@
         <v>11216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>203</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6693,13 +6699,13 @@
         <v>7102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6711,16 +6717,16 @@
         <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
         <v>32</v>
@@ -6729,13 +6735,13 @@
         <v>34808</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>320</v>
+        <v>451</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H27" s="7">
         <v>62</v>
@@ -6744,34 +6750,34 @@
         <v>68344</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>125</v>
+        <v>453</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M27" s="7">
         <v>94</v>
       </c>
       <c r="N27" s="7">
-        <v>103153</v>
+        <v>103152</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>454</v>
+        <v>250</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>455</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>396</v>
@@ -6801,7 +6807,7 @@
         <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>805</v>
@@ -6810,10 +6816,10 @@
         <v>859091</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>463</v>
@@ -6822,7 +6828,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>2049</v>
@@ -6873,7 +6879,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>720</v>
@@ -6900,10 +6906,10 @@
         <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>477</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M30" s="7">
         <v>1461</v>
@@ -6912,13 +6918,13 @@
         <v>1529204</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +6939,13 @@
         <v>3368902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>3313</v>
@@ -6948,33 +6954,33 @@
         <v>3518072</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>6520</v>
       </c>
       <c r="N31" s="7">
-        <v>6886974</v>
+        <v>6886973</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -6993,7 +6999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94651B8-2BEB-4656-A52B-6EF68A11ECA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1B2CF7-4DD8-4D8D-AED8-03093AF6AA5D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7010,7 +7016,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7123,7 +7129,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7138,7 +7144,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7168,13 +7174,13 @@
         <v>5596</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7183,13 +7189,13 @@
         <v>5284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -7198,19 +7204,19 @@
         <v>10880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>77</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -7219,13 +7225,13 @@
         <v>6998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -7234,13 +7240,13 @@
         <v>8814</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -7249,19 +7255,19 @@
         <v>15811</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>59</v>
@@ -7270,13 +7276,13 @@
         <v>51855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>125</v>
@@ -7285,13 +7291,13 @@
         <v>78391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -7300,19 +7306,19 @@
         <v>130247</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>429</v>
@@ -7363,7 +7369,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="7">
         <v>186</v>
@@ -7390,10 +7396,10 @@
         <v>512</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>513</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M9" s="7">
         <v>529</v>
@@ -7402,13 +7408,13 @@
         <v>322536</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7429,13 @@
         <v>540027</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>1420</v>
@@ -7438,13 +7444,13 @@
         <v>832258</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>2109</v>
@@ -7453,18 +7459,18 @@
         <v>1372286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -7482,7 +7488,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -7497,7 +7503,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -7512,7 +7518,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7533,13 @@
         <v>2745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -7542,13 +7548,13 @@
         <v>3677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -7560,16 +7566,16 @@
         <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
         <v>9</v>
@@ -7578,13 +7584,13 @@
         <v>10895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7596,7 +7602,7 @@
         <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>522</v>
@@ -7608,19 +7614,19 @@
         <v>30060</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>524</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
         <v>136</v>
@@ -7629,13 +7635,13 @@
         <v>149216</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -7644,13 +7650,13 @@
         <v>176776</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>366</v>
@@ -7659,19 +7665,19 @@
         <v>325993</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>531</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1505</v>
@@ -7680,13 +7686,13 @@
         <v>1591083</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H15" s="7">
         <v>2162</v>
@@ -7695,13 +7701,13 @@
         <v>1661962</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M15" s="7">
         <v>3667</v>
@@ -7710,19 +7716,19 @@
         <v>3253045</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7">
         <v>338</v>
@@ -7731,13 +7737,13 @@
         <v>406790</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H16" s="7">
         <v>494</v>
@@ -7746,13 +7752,13 @@
         <v>385353</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>832</v>
@@ -7761,13 +7767,13 @@
         <v>792144</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7788,13 @@
         <v>2160730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>2916</v>
@@ -7797,13 +7803,13 @@
         <v>2246934</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>4906</v>
@@ -7812,18 +7818,18 @@
         <v>4407664</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -7841,7 +7847,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7871,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7892,13 @@
         <v>1344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7904,10 +7910,10 @@
         <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>520</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7916,19 +7922,19 @@
         <v>3840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -7937,13 +7943,13 @@
         <v>10822</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -7952,10 +7958,10 @@
         <v>9969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>553</v>
@@ -7967,7 +7973,7 @@
         <v>20790</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>554</v>
@@ -7979,7 +7985,7 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7">
         <v>56</v>
@@ -8030,7 +8036,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="7">
         <v>489</v>
@@ -8069,19 +8075,19 @@
         <v>983303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7">
         <v>122</v>
@@ -8090,13 +8096,13 @@
         <v>126509</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -8105,13 +8111,13 @@
         <v>125393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>576</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M23" s="7">
         <v>293</v>
@@ -8120,13 +8126,13 @@
         <v>251902</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>579</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8141,13 +8147,13 @@
         <v>671599</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="7">
         <v>1000</v>
@@ -8156,13 +8162,13 @@
         <v>711215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="7">
         <v>1680</v>
@@ -8171,13 +8177,13 @@
         <v>1382813</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,7 +8200,7 @@
         <v>1050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
@@ -8215,7 +8221,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8224,13 +8230,13 @@
         <v>1050</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8245,13 +8251,13 @@
         <v>9685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8260,13 +8266,13 @@
         <v>11458</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8275,19 +8281,19 @@
         <v>21143</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>583</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7">
         <v>29</v>
@@ -8299,10 +8305,10 @@
         <v>521</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>584</v>
+        <v>250</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
@@ -8311,10 +8317,10 @@
         <v>37948</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>585</v>
+        <v>123</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>586</v>
@@ -8329,16 +8335,16 @@
         <v>587</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>251</v>
@@ -8347,13 +8353,13 @@
         <v>257465</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>450</v>
@@ -8362,13 +8368,13 @@
         <v>321751</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>701</v>
@@ -8389,7 +8395,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7">
         <v>2423</v>
@@ -8413,13 +8419,13 @@
         <v>2729306</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>6233</v>
@@ -8428,19 +8434,19 @@
         <v>5128110</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="7">
         <v>646</v>
@@ -8449,13 +8455,13 @@
         <v>676637</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H30" s="7">
         <v>1008</v>
@@ -8464,13 +8470,13 @@
         <v>689945</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>43</v>
+        <v>612</v>
       </c>
       <c r="M30" s="7">
         <v>1654</v>
@@ -8479,13 +8485,13 @@
         <v>1366582</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8500,13 +8506,13 @@
         <v>3372355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="7">
         <v>5336</v>
@@ -8515,13 +8521,13 @@
         <v>3790407</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>8695</v>
@@ -8530,18 +8536,18 @@
         <v>7162762</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76541E65-C4B9-496F-B33D-686A928DEC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6BBCDB5-DFD6-4CFC-83EE-EDD44DCACBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0911A1E0-EDF4-4E6D-9018-9F2A849C8449}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{01958255-B29E-4CAF-8ECD-DD558EC9B7C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="599">
   <si>
     <t>Población según la calidad percibida del medioambiente de su barrio en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -1481,364 +1481,361 @@
     <t>Población según la calidad percibida del medioambiente de su barrio en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
 </sst>
 </file>
@@ -2250,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A70792-3EDC-45C0-87CF-ED2DCB548724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95414E75-7E32-437A-AEA9-9E133855672B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2934,7 +2931,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3613,7 +3610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAC3FAD-2949-4F9F-92C3-8143E69CCF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134F16FC-F20E-4D29-A885-637652912653}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4826,7 +4823,7 @@
         <v>2384</v>
       </c>
       <c r="I25" s="7">
-        <v>2568905</v>
+        <v>2568906</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>331</v>
@@ -4928,7 +4925,7 @@
         <v>3278</v>
       </c>
       <c r="I27" s="7">
-        <v>3537508</v>
+        <v>3537509</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -4976,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED303DB-D271-4109-BE70-5F29864D5DC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC352FE5-6ED3-4033-B095-E6702FAD123F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5588,7 +5585,7 @@
         <v>2454</v>
       </c>
       <c r="N13" s="7">
-        <v>2583109</v>
+        <v>2583108</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>404</v>
@@ -5690,7 +5687,7 @@
         <v>3847</v>
       </c>
       <c r="N15" s="7">
-        <v>4051494</v>
+        <v>4051493</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6102,7 +6099,7 @@
         <v>94</v>
       </c>
       <c r="N23" s="7">
-        <v>103153</v>
+        <v>103152</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>276</v>
@@ -6189,7 +6186,7 @@
         <v>2094</v>
       </c>
       <c r="I25" s="7">
-        <v>2219099</v>
+        <v>2219098</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>464</v>
@@ -6291,7 +6288,7 @@
         <v>3313</v>
       </c>
       <c r="I27" s="7">
-        <v>3518072</v>
+        <v>3518071</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6306,7 +6303,7 @@
         <v>6520</v>
       </c>
       <c r="N27" s="7">
-        <v>6886974</v>
+        <v>6886973</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6339,7 +6336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEC0C4A-77E7-42CC-A93F-D18259A8D014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E04269-92E3-4EE3-A0F7-B0B90788267A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6460,46 +6457,46 @@
         <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>5596</v>
+        <v>5402</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>5284</v>
+        <v>4865</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>481</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>482</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>10880</v>
+        <v>10267</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>62</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,46 +6508,46 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6998</v>
+        <v>6731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>8814</v>
+        <v>8122</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>15811</v>
+        <v>14853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,40 +6559,40 @@
         <v>59</v>
       </c>
       <c r="D6" s="7">
-        <v>51855</v>
+        <v>48928</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>288</v>
       </c>
       <c r="H6" s="7">
         <v>125</v>
       </c>
       <c r="I6" s="7">
-        <v>78391</v>
+        <v>71410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>490</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>184</v>
       </c>
       <c r="N6" s="7">
-        <v>130247</v>
+        <v>120338</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>491</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>492</v>
@@ -6613,46 +6610,46 @@
         <v>429</v>
       </c>
       <c r="D7" s="7">
-        <v>331191</v>
+        <v>315076</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>930</v>
       </c>
       <c r="I7" s="7">
-        <v>560570</v>
+        <v>502948</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>1359</v>
       </c>
       <c r="N7" s="7">
-        <v>891762</v>
+        <v>818024</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,46 +6661,46 @@
         <v>186</v>
       </c>
       <c r="D8" s="7">
-        <v>143338</v>
+        <v>136191</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H8" s="7">
         <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>179198</v>
+        <v>164782</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>529</v>
       </c>
       <c r="N8" s="7">
-        <v>322536</v>
+        <v>300973</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,7 +6712,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="7">
-        <v>538977</v>
+        <v>512328</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6730,7 +6727,7 @@
         <v>1420</v>
       </c>
       <c r="I9" s="7">
-        <v>832258</v>
+        <v>752128</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6745,7 +6742,7 @@
         <v>2108</v>
       </c>
       <c r="N9" s="7">
-        <v>1371236</v>
+        <v>1264456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6768,40 +6765,40 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2745</v>
+        <v>2789</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3677</v>
+        <v>3447</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>6422</v>
+        <v>6237</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>15</v>
+        <v>509</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>232</v>
@@ -6819,46 +6816,46 @@
         <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>10895</v>
+        <v>10623</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>19166</v>
+        <v>17527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>30060</v>
+        <v>28150</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,25 +6867,25 @@
         <v>136</v>
       </c>
       <c r="D12" s="7">
-        <v>149216</v>
+        <v>144327</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H12" s="7">
         <v>230</v>
       </c>
       <c r="I12" s="7">
-        <v>176776</v>
+        <v>163593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>516</v>
@@ -6900,7 +6897,7 @@
         <v>366</v>
       </c>
       <c r="N12" s="7">
-        <v>325993</v>
+        <v>307920</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>518</v>
@@ -6921,7 +6918,7 @@
         <v>1505</v>
       </c>
       <c r="D13" s="7">
-        <v>1591083</v>
+        <v>1732998</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>521</v>
@@ -6936,7 +6933,7 @@
         <v>2162</v>
       </c>
       <c r="I13" s="7">
-        <v>1661962</v>
+        <v>1672477</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>524</v>
@@ -6951,7 +6948,7 @@
         <v>3667</v>
       </c>
       <c r="N13" s="7">
-        <v>3253045</v>
+        <v>3405475</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>527</v>
@@ -6972,46 +6969,46 @@
         <v>338</v>
       </c>
       <c r="D14" s="7">
-        <v>406790</v>
+        <v>398353</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>530</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>531</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>532</v>
       </c>
       <c r="H14" s="7">
         <v>494</v>
       </c>
       <c r="I14" s="7">
-        <v>385353</v>
+        <v>378367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M14" s="7">
         <v>832</v>
       </c>
       <c r="N14" s="7">
-        <v>792144</v>
+        <v>776720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,7 +7020,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160730</v>
+        <v>2289090</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7038,7 +7035,7 @@
         <v>2916</v>
       </c>
       <c r="I15" s="7">
-        <v>2246934</v>
+        <v>2235412</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7053,7 +7050,7 @@
         <v>4906</v>
       </c>
       <c r="N15" s="7">
-        <v>4407664</v>
+        <v>4524502</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7076,37 +7073,37 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>316</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2497</v>
+        <v>2342</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>539</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3840</v>
+        <v>3676</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>195</v>
@@ -7115,7 +7112,7 @@
         <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,46 +7124,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>10822</v>
+        <v>10286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
       </c>
       <c r="I17" s="7">
-        <v>9969</v>
+        <v>9109</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>20790</v>
+        <v>19395</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,46 +7175,46 @@
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>56394</v>
+        <v>54644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>545</v>
+        <v>227</v>
       </c>
       <c r="H18" s="7">
         <v>95</v>
       </c>
       <c r="I18" s="7">
-        <v>66583</v>
+        <v>61531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M18" s="7">
         <v>151</v>
       </c>
       <c r="N18" s="7">
-        <v>122977</v>
+        <v>116176</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>549</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,46 +7226,46 @@
         <v>489</v>
       </c>
       <c r="D19" s="7">
-        <v>476531</v>
+        <v>458505</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>718</v>
       </c>
       <c r="I19" s="7">
-        <v>506773</v>
+        <v>468908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>1207</v>
       </c>
       <c r="N19" s="7">
-        <v>983303</v>
+        <v>927413</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,37 +7277,37 @@
         <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>126509</v>
+        <v>120398</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>171</v>
       </c>
       <c r="I20" s="7">
-        <v>125393</v>
+        <v>116158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>293</v>
       </c>
       <c r="N20" s="7">
-        <v>251902</v>
+        <v>236556</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>566</v>
@@ -7331,7 +7328,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>671599</v>
+        <v>645167</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7346,7 +7343,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="7">
-        <v>711214</v>
+        <v>658049</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7361,7 +7358,7 @@
         <v>1680</v>
       </c>
       <c r="N21" s="7">
-        <v>1382813</v>
+        <v>1303216</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7384,46 +7381,46 @@
         <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>9685</v>
+        <v>9525</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
       </c>
       <c r="I22" s="7">
-        <v>11458</v>
+        <v>10655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>570</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>21143</v>
+        <v>20180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,46 +7432,46 @@
         <v>29</v>
       </c>
       <c r="D23" s="7">
-        <v>28714</v>
+        <v>27640</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>572</v>
+        <v>235</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>37948</v>
+        <v>34759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>573</v>
+        <v>346</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
       </c>
       <c r="N23" s="7">
-        <v>66662</v>
+        <v>62399</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>575</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,46 +7483,46 @@
         <v>251</v>
       </c>
       <c r="D24" s="7">
-        <v>257465</v>
+        <v>247899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>450</v>
       </c>
       <c r="I24" s="7">
-        <v>321751</v>
+        <v>296535</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="M24" s="7">
         <v>701</v>
       </c>
       <c r="N24" s="7">
-        <v>579216</v>
+        <v>544434</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,46 +7534,46 @@
         <v>2423</v>
       </c>
       <c r="D25" s="7">
-        <v>2398805</v>
+        <v>2506580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H25" s="7">
         <v>3810</v>
       </c>
       <c r="I25" s="7">
-        <v>2729306</v>
+        <v>2644332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M25" s="7">
         <v>6233</v>
       </c>
       <c r="N25" s="7">
-        <v>5128110</v>
+        <v>5150912</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,46 +7585,46 @@
         <v>646</v>
       </c>
       <c r="D26" s="7">
-        <v>676637</v>
+        <v>654942</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>1008</v>
       </c>
       <c r="I26" s="7">
-        <v>689945</v>
+        <v>659307</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>1654</v>
       </c>
       <c r="N26" s="7">
-        <v>1366582</v>
+        <v>1314249</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,7 +7636,7 @@
         <v>3358</v>
       </c>
       <c r="D27" s="7">
-        <v>3371306</v>
+        <v>3446586</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7654,7 +7651,7 @@
         <v>5336</v>
       </c>
       <c r="I27" s="7">
-        <v>3790407</v>
+        <v>3645588</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7669,7 +7666,7 @@
         <v>8694</v>
       </c>
       <c r="N27" s="7">
-        <v>7161713</v>
+        <v>7092174</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
